--- a/DokkanKits/16.xlsx
+++ b/DokkanKits/16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E935BE-0054-4FC7-9B13-A21DA15A63E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AE28C9-1FA3-4266-A9A1-034BF412CBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="0" windowWidth="11415" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1116,6 +1116,9 @@
         <v>57</v>
       </c>
       <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="D38">
         <v>1</v>
       </c>
     </row>
@@ -1137,6 +1140,9 @@
       <c r="B40">
         <v>1</v>
       </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
@@ -1156,6 +1162,9 @@
       <c r="B42">
         <v>1</v>
       </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
@@ -1173,6 +1182,9 @@
         <v>66</v>
       </c>
       <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="D44">
         <v>1</v>
       </c>
     </row>
@@ -1192,6 +1204,9 @@
         <v>69</v>
       </c>
       <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="D46">
         <v>1</v>
       </c>
     </row>
@@ -1213,6 +1228,9 @@
       <c r="B48">
         <v>1</v>
       </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
@@ -1230,7 +1248,10 @@
         <v>75</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
